--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenditure Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Money Distribution" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>Sno</t>
   </si>
@@ -244,13 +244,130 @@
   </si>
   <si>
     <t>Sno 2</t>
+  </si>
+  <si>
+    <t>Suraj Singh</t>
+  </si>
+  <si>
+    <t>Simranjeet Singh</t>
+  </si>
+  <si>
+    <t>Harshit Sahni</t>
+  </si>
+  <si>
+    <t>Saurav</t>
+  </si>
+  <si>
+    <t>ELSWD059023</t>
+  </si>
+  <si>
+    <t>19-04-2017</t>
+  </si>
+  <si>
+    <t>Time to be Constructed</t>
+  </si>
+  <si>
+    <t>Time to Deliver</t>
+  </si>
+  <si>
+    <t>Design of State Machine Using VHDL</t>
+  </si>
+  <si>
+    <t>Code detection using MATLAB</t>
+  </si>
+  <si>
+    <t>simranjeet2351994@gmail.com</t>
+  </si>
+  <si>
+    <t>ELSWD059024</t>
+  </si>
+  <si>
+    <t>22-04-2017</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>harshitsahni20@outlook.com</t>
+  </si>
+  <si>
+    <t>WEFBD059017</t>
+  </si>
+  <si>
+    <t>13-02-2017</t>
+  </si>
+  <si>
+    <t>Anmol Shrivastava</t>
+  </si>
+  <si>
+    <t>99296 94862</t>
+  </si>
+  <si>
+    <t>shrivastavaanmol007@gmail.com</t>
+  </si>
+  <si>
+    <t>ELDIJ108018</t>
+  </si>
+  <si>
+    <t>27-03-2017</t>
+  </si>
+  <si>
+    <t>Sun Tracking Solar panel</t>
+  </si>
+  <si>
+    <t>ELDIJ012013</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Posters</t>
+  </si>
+  <si>
+    <t>Salary to Arun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raju </t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Payment Received</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>Money Left</t>
+  </si>
+  <si>
+    <t>INVOICES RECEIVED BY SAURAV</t>
+  </si>
+  <si>
+    <t>akankshaarya999@gmail.com</t>
+  </si>
+  <si>
+    <t>March 2017 - May 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,21 +422,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -330,7 +499,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +509,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,11 +841,13 @@
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,8 +893,14 @@
       <c r="O1" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -734,7 +919,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="28.5">
+    <row r="3" spans="1:17" ht="28.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -754,7 +939,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1</v>
       </c>
@@ -798,7 +983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2</v>
       </c>
@@ -842,7 +1027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>3</v>
       </c>
@@ -886,7 +1071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>4</v>
       </c>
@@ -930,7 +1115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>5</v>
       </c>
@@ -974,7 +1159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1018,7 +1203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1062,7 +1247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1106,7 +1291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1150,7 +1335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1194,7 +1379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1224,7 +1409,7 @@
         <v>11633</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.5">
+    <row r="15" spans="1:17" ht="28.5">
       <c r="G15" s="6" t="s">
         <v>67</v>
       </c>
@@ -1232,7 +1417,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1279,7 +1464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1326,68 +1511,68 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:17">
       <c r="A18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18">
-        <v>3580</v>
+        <v>2920</v>
       </c>
       <c r="F18">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3">
-        <v>7726815119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
+        <v>9818260807</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J18">
-        <v>530</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>1500</v>
+        <v>1970</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19">
-        <v>2920</v>
+        <v>1020</v>
       </c>
       <c r="F19">
-        <v>900</v>
+        <v>635</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>42</v>
@@ -1399,7 +1584,7 @@
         <v>43</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1408,42 +1593,42 @@
         <v>19</v>
       </c>
       <c r="M19">
-        <v>1970</v>
+        <v>385</v>
       </c>
       <c r="O19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:17">
       <c r="A20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>1020</v>
+        <v>4660</v>
       </c>
       <c r="F20">
-        <v>635</v>
+        <v>1770</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H20" s="3">
-        <v>9818260807</v>
+        <v>9968111206</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1452,169 +1637,336 @@
         <v>19</v>
       </c>
       <c r="M20">
-        <v>385</v>
-      </c>
-      <c r="O20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>2840</v>
+      </c>
+      <c r="O20" s="8">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21">
-        <v>4660</v>
+        <v>2600</v>
       </c>
       <c r="F21">
-        <v>1770</v>
+        <v>950</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3">
-        <v>9968111206</v>
+        <v>9599945557</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21">
-        <v>50</v>
-      </c>
-      <c r="K21">
+        <v>64</v>
+      </c>
+      <c r="J21" s="4">
+        <v>350</v>
+      </c>
+      <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>19</v>
       </c>
-      <c r="M21">
-        <v>2840</v>
-      </c>
-      <c r="O21" s="8">
-        <v>42949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2">
+        <f>SUM(E16:E21)</f>
+        <v>12720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>2600</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24">
+        <v>858807767</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24">
+        <v>2600</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="Q24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>2600</v>
       </c>
-      <c r="F22">
-        <v>950</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="3">
-        <v>9599945557</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="4">
-        <v>350</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <v>9716029947</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25">
+        <v>2600</v>
+      </c>
+      <c r="N25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>2500</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>8527655382</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26">
+        <v>2500</v>
+      </c>
+      <c r="N26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>3680</v>
+      </c>
+      <c r="F27">
+        <v>1550</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7726815119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27">
+        <v>530</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27">
+        <v>1500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>3990</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2">
-        <f>SUM(E16:E22)</f>
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2">
+        <f>SUM(E24:E28)</f>
+        <v>15370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="C35" s="2"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1630,10 +1982,10 @@
     <hyperlink ref="I13" r:id="rId10"/>
     <hyperlink ref="I16" r:id="rId11"/>
     <hyperlink ref="I17" r:id="rId12"/>
-    <hyperlink ref="I22" r:id="rId13" display="mailto:adityajain118@gmail.com"/>
-    <hyperlink ref="I21" r:id="rId14" display="mailto:dhankharanjali55@gmail.com"/>
-    <hyperlink ref="I19" r:id="rId15"/>
-    <hyperlink ref="I20" r:id="rId16"/>
+    <hyperlink ref="I21" r:id="rId13" display="mailto:adityajain118@gmail.com"/>
+    <hyperlink ref="I20" r:id="rId14" display="mailto:dhankharanjali55@gmail.com"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -1642,22 +1994,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F8:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:6">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="6:6">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>3300</v>
+      </c>
       <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="2">
+        <f>SUM(B3:B9)</f>
+        <v>9173</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,12 +2093,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>17370</v>
+      </c>
+      <c r="C2">
+        <v>9173</v>
+      </c>
+      <c r="D2" s="2">
+        <f>(B2 - C2)</f>
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
   <si>
     <t>Sno</t>
   </si>
@@ -361,13 +361,103 @@
   </si>
   <si>
     <t>March 2017 - May 2017</t>
+  </si>
+  <si>
+    <t>ELRMD059016</t>
+  </si>
+  <si>
+    <t>ELRMD059014</t>
+  </si>
+  <si>
+    <t>ELCO/RMD045015</t>
+  </si>
+  <si>
+    <t>INVOICES RECEIVED BY ABHISHEK</t>
+  </si>
+  <si>
+    <t>Mohit Chhikara</t>
+  </si>
+  <si>
+    <t>mohitchhikara.08@gmail.com</t>
+  </si>
+  <si>
+    <t>ELCOD059019 </t>
+  </si>
+  <si>
+    <t>ELRED059020</t>
+  </si>
+  <si>
+    <t>Bhaskar Singh</t>
+  </si>
+  <si>
+    <t>singhbhaskar018@gmail.com</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Web Server</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>ELMND059021</t>
+  </si>
+  <si>
+    <t>Manufacture a project [ Home automation using various sensors ]</t>
+  </si>
+  <si>
+    <t>ELMND059022</t>
+  </si>
+  <si>
+    <t>14-04-2017</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>IOT BASED AIR QUALITY CHECK</t>
+  </si>
+  <si>
+    <t>divya.24b@gmail.com</t>
+  </si>
+  <si>
+    <t>13-04-2017</t>
+  </si>
+  <si>
+    <t>ELRMD059025</t>
+  </si>
+  <si>
+    <t>GPS Enabled Clock</t>
+  </si>
+  <si>
+    <t>30-04-2017</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Digital locking system using 8051</t>
+  </si>
+  <si>
+    <t>ELRMJ017026</t>
+  </si>
+  <si>
+    <t>ECRMS059027 </t>
+  </si>
+  <si>
+    <t>Mohit Joon</t>
+  </si>
+  <si>
+    <t>mjoon0111@gmail.com</t>
+  </si>
+  <si>
+    <t>Self-Balancing Vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +543,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +608,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,6 +626,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,11 +932,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -834,9 +944,9 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
@@ -1551,6 +1661,9 @@
       <c r="M18">
         <v>1970</v>
       </c>
+      <c r="N18" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="O18" t="s">
         <v>72</v>
       </c>
@@ -1595,6 +1708,9 @@
       <c r="M19">
         <v>385</v>
       </c>
+      <c r="N19" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="O19" t="s">
         <v>72</v>
       </c>
@@ -1638,6 +1754,9 @@
       </c>
       <c r="M20">
         <v>2840</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="O20" s="8">
         <v>42949</v>
@@ -1683,8 +1802,8 @@
       <c r="M21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>18</v>
+      <c r="N21" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>18</v>
@@ -1711,6 +1830,9 @@
       <c r="A24">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -1761,6 +1883,9 @@
       <c r="A25">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
       <c r="C25" t="s">
         <v>85</v>
       </c>
@@ -1811,6 +1936,9 @@
       <c r="A26">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
       <c r="C26" t="s">
         <v>89</v>
       </c>
@@ -1861,6 +1989,9 @@
       <c r="A27">
         <v>23</v>
       </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
@@ -1905,6 +2036,9 @@
       <c r="A28">
         <v>24</v>
       </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
       <c r="C28" t="s">
         <v>98</v>
       </c>
@@ -1949,24 +2083,263 @@
       <c r="A30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="C30" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75">
       <c r="A31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>1999</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="10">
+        <v>8053983617</v>
+      </c>
+      <c r="I31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75">
       <c r="A32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>2000</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="10">
+        <v>9910852994</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="8">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75">
       <c r="A33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34" s="2"/>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>2760</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="10">
+        <v>8053983617</v>
+      </c>
+      <c r="I33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>3201</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="10">
+        <v>9013286657</v>
+      </c>
+      <c r="I34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>2470</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="10">
+        <v>9540110342</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>2100</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="10">
+        <v>9610249336</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" s="8">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>3382</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="10">
+        <v>8076381448</v>
+      </c>
+      <c r="I37" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="8">
+        <v>42772</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1996,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Expenditure Sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Money Distribution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
   <si>
     <t>Sno</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>Payment Received</t>
-  </si>
-  <si>
     <t>Expenditure</t>
   </si>
   <si>
@@ -451,13 +448,25 @@
   </si>
   <si>
     <t>Self-Balancing Vehicle</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Burger King</t>
+  </si>
+  <si>
+    <t>Bikanerwala</t>
+  </si>
+  <si>
+    <t>Payment Received (2017)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,9 +731,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,6 +766,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,12 +942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -957,7 +970,7 @@
     <col min="17" max="17" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1029,7 +1042,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="28.5">
+    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1049,7 +1062,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1093,7 +1106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1137,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1181,7 +1194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1313,7 +1326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1357,7 +1370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1519,7 +1532,7 @@
         <v>11633</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.5">
+    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="G15" s="6" t="s">
         <v>67</v>
       </c>
@@ -1527,7 +1540,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1574,7 +1587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1621,7 +1634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1662,13 +1675,13 @@
         <v>1970</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1709,13 +1722,13 @@
         <v>385</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1756,13 +1769,13 @@
         <v>2840</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20" s="8">
         <v>42949</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1799,17 +1812,17 @@
       <c r="L21" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>18</v>
+      <c r="M21" s="4">
+        <v>0</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1818,15 +1831,15 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1879,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1932,7 +1945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1985,7 +1998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2011,7 +2024,7 @@
         <v>7726815119</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27">
         <v>530</v>
@@ -2032,7 +2045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2070,7 +2083,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2079,15 +2092,15 @@
         <v>15370</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2095,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -2107,25 +2120,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="10">
         <v>8053983617</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L31" t="s">
         <v>19</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75">
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2133,7 +2146,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2145,25 +2158,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H32" s="10">
         <v>9910852994</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O32" s="8">
         <v>42771</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75">
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2171,7 +2184,7 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2183,30 +2196,30 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="10">
         <v>8053983617</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33" t="s">
         <v>19</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -2218,30 +2231,30 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="10">
         <v>9013286657</v>
       </c>
       <c r="I34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
       </c>
       <c r="N34" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" t="s">
         <v>129</v>
       </c>
-      <c r="O34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -2265,30 +2278,30 @@
         <v>19</v>
       </c>
       <c r="N35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>17</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="10">
         <v>9610249336</v>
@@ -2300,18 +2313,18 @@
         <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O36" s="8">
         <v>42921</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75">
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -2323,22 +2336,28 @@
         <v>0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="10">
         <v>8076381448</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O37" s="8">
         <v>42772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="11">
+        <f>SUM(E31:E37)</f>
+        <v>15812</v>
       </c>
     </row>
   </sheetData>
@@ -2366,28 +2385,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
@@ -2395,7 +2414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2403,7 +2422,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2411,7 +2430,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2419,7 +2438,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2427,7 +2446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2435,7 +2454,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -2443,7 +2462,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -2452,27 +2471,68 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="2">
-        <f>SUM(B3:B9)</f>
-        <v>9173</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="4">
+        <v>964</v>
       </c>
       <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B3:B13)</f>
+        <v>11758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -2480,18 +2540,18 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2499,16 +2559,19 @@
         <v>17370</v>
       </c>
       <c r="C2">
-        <v>9173</v>
+        <v>11758</v>
       </c>
       <c r="D2" s="2">
         <f>(B2 - C2)</f>
-        <v>8197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
+      </c>
+      <c r="B3">
+        <v>28532</v>
       </c>
     </row>
   </sheetData>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
   <si>
     <t>Sno</t>
   </si>
@@ -460,6 +460,21 @@
   </si>
   <si>
     <t>Payment Received (2017)</t>
+  </si>
+  <si>
+    <t>Parisha</t>
+  </si>
+  <si>
+    <t>parisharai.2096@gmail.com</t>
+  </si>
+  <si>
+    <t>Mayank Negi</t>
+  </si>
+  <si>
+    <t>ELRMG012029</t>
+  </si>
+  <si>
+    <t>Multizone firealarm</t>
   </si>
 </sst>
 </file>
@@ -617,7 +632,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -638,6 +653,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2093,7 @@
       <c r="L28" t="s">
         <v>19</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="18" t="s">
         <v>96</v>
       </c>
       <c r="O28" t="s">
@@ -2131,7 +2148,7 @@
       <c r="L31" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="19" t="s">
         <v>120</v>
       </c>
       <c r="O31" t="s">
@@ -2169,7 +2186,7 @@
       <c r="L32" t="s">
         <v>19</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="19" t="s">
         <v>121</v>
       </c>
       <c r="O32" s="8">
@@ -2207,7 +2224,7 @@
       <c r="L33" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="19" t="s">
         <v>126</v>
       </c>
       <c r="O33" t="s">
@@ -2215,6 +2232,9 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
       <c r="B34">
         <v>15</v>
       </c>
@@ -2242,7 +2262,7 @@
       <c r="L34" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="19" t="s">
         <v>128</v>
       </c>
       <c r="O34" t="s">
@@ -2250,6 +2270,9 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
       <c r="B35">
         <v>16</v>
       </c>
@@ -2277,7 +2300,7 @@
       <c r="L35" t="s">
         <v>19</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="18" t="s">
         <v>134</v>
       </c>
       <c r="O35" t="s">
@@ -2285,6 +2308,9 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
       <c r="B36">
         <v>17</v>
       </c>
@@ -2312,7 +2338,7 @@
       <c r="L36" t="s">
         <v>19</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="18" t="s">
         <v>139</v>
       </c>
       <c r="O36" s="8">
@@ -2320,6 +2346,9 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
       <c r="B37">
         <v>18</v>
       </c>
@@ -2347,18 +2376,56 @@
       <c r="L37" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="19" t="s">
         <v>140</v>
       </c>
       <c r="O37" s="8">
         <v>42772</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="11">
-        <f>SUM(E31:E37)</f>
-        <v>15812</v>
-      </c>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>3950</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="10">
+        <v>9999068027</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38">
+        <v>251</v>
+      </c>
+      <c r="L38" t="s">
+        <v>150</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O38" s="8">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2378,9 +2445,10 @@
     <hyperlink ref="I20" r:id="rId14" display="mailto:dhankharanjali55@gmail.com"/>
     <hyperlink ref="I18" r:id="rId15"/>
     <hyperlink ref="I19" r:id="rId16"/>
+    <hyperlink ref="I38" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2528,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
   <si>
     <t>Sno</t>
   </si>
@@ -475,13 +475,40 @@
   </si>
   <si>
     <t>Multizone firealarm</t>
+  </si>
+  <si>
+    <t>Sentiment analysis using Matlab</t>
+  </si>
+  <si>
+    <t>Jyoti Kirar</t>
+  </si>
+  <si>
+    <t>180507pjyoti@gmail.com</t>
+  </si>
+  <si>
+    <t>ELSWD059030</t>
+  </si>
+  <si>
+    <t>16-07-2017</t>
+  </si>
+  <si>
+    <t>Smart Card + Website</t>
+  </si>
+  <si>
+    <t>Ram Bilekishan</t>
+  </si>
+  <si>
+    <t>rambilekshan@gmail.com</t>
+  </si>
+  <si>
+    <t>ELRMG003031</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,8 +607,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +671,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,6 +694,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -960,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,6 +2131,9 @@
       <c r="I28" t="s">
         <v>95</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28" t="s">
         <v>19</v>
       </c>
@@ -2104,110 +2148,119 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="E29" s="2">
-        <f>SUM(E24:E28)</f>
-        <v>15370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>7200</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="10">
+        <v>9999613491</v>
+      </c>
+      <c r="I29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29">
+        <v>7200</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O29" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="C30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>3950</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="10">
+        <v>9999068027</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O30" s="8">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <f>SUM(E24:E30)</f>
+        <v>26520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31">
-        <v>1999</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="10">
-        <v>8053983617</v>
-      </c>
-      <c r="I31" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>2000</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="10">
-        <v>9910852994</v>
-      </c>
-      <c r="I32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L32" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O32" s="8">
-        <v>42771</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33">
-        <v>2760</v>
+        <v>1999</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2225,207 +2278,286 @@
         <v>19</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O33" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>131</v>
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34">
-        <v>3201</v>
+        <v>2000</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H34" s="10">
-        <v>9013286657</v>
+        <v>9910852994</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="O34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="O34" s="8">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>16</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>2470</v>
+        <v>2760</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="H35" s="10">
-        <v>9540110342</v>
+        <v>8053983617</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="18" t="s">
-        <v>134</v>
+      <c r="N35" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="O35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>17</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>138</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3201</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H36" s="10">
-        <v>9610249336</v>
+        <v>9013286657</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O36" s="8">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N36" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
+        <v>17</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37">
-        <v>3382</v>
+        <v>2470</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>141</v>
+      <c r="G37" t="s">
+        <v>29</v>
       </c>
       <c r="H37" s="10">
-        <v>8076381448</v>
+        <v>9540110342</v>
       </c>
       <c r="I37" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="10">
+        <v>9610249336</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" s="8">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>3382</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="10">
+        <v>8076381448</v>
+      </c>
+      <c r="I39" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O39" s="8">
         <v>42772</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>34</v>
       </c>
-      <c r="B38">
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="3">
+        <v>9560910718</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
         <v>19</v>
       </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>3950</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="10">
-        <v>9999068027</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J38">
-        <v>251</v>
-      </c>
-      <c r="L38" t="s">
-        <v>150</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="O38" s="8">
-        <v>42893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="11"/>
+      <c r="N40" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" s="8">
+        <v>42891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f>SUM(E33:E40)</f>
+        <v>19812</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2445,10 +2577,11 @@
     <hyperlink ref="I20" r:id="rId14" display="mailto:dhankharanjali55@gmail.com"/>
     <hyperlink ref="I18" r:id="rId15"/>
     <hyperlink ref="I19" r:id="rId16"/>
-    <hyperlink ref="I38" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
+    <hyperlink ref="I30" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
+    <hyperlink ref="I40" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2457,7 +2590,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2730,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,14 +2757,14 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>17370</v>
+        <v>26520</v>
       </c>
       <c r="C2">
         <v>11758</v>
       </c>
       <c r="D2" s="2">
         <f>(B2 - C2)</f>
-        <v>5612</v>
+        <v>14762</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>28532</v>
+        <v>32532</v>
       </c>
     </row>
   </sheetData>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
   <si>
     <t>Sno</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t>ELRMG003031</t>
+  </si>
+  <si>
+    <t>Bluehost</t>
+  </si>
+  <si>
+    <t>Godaddy</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2587,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,16 +2712,32 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
       <c r="B14">
-        <f>SUM(B3:B13)</f>
-        <v>11758</v>
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15">
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B16">
+        <f>SUM(B3:B15)</f>
+        <v>21335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2729,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,11 +2782,11 @@
         <v>26520</v>
       </c>
       <c r="C2">
-        <v>11758</v>
+        <v>21335</v>
       </c>
       <c r="D2" s="2">
         <f>(B2 - C2)</f>
-        <v>14762</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
   <si>
     <t>Sno</t>
   </si>
@@ -508,6 +508,33 @@
   </si>
   <si>
     <t>Godaddy</t>
+  </si>
+  <si>
+    <t>Hot glue gun</t>
+  </si>
+  <si>
+    <t>Elecduino</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Shikha Singh</t>
+  </si>
+  <si>
+    <t>ELCOP028032</t>
+  </si>
+  <si>
+    <t>Subu Murthy</t>
+  </si>
+  <si>
+    <t>ELDDA059034</t>
+  </si>
+  <si>
+    <t>21-09-2017</t>
+  </si>
+  <si>
+    <t>transferred</t>
   </si>
 </sst>
 </file>
@@ -677,7 +704,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -702,6 +729,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1007,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,327 +2269,411 @@
         <v>42893</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E31" s="2">
-        <f>SUM(E24:E30)</f>
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="11" t="s">
+    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31">
+        <v>350</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="1"/>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>999</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="16">
+        <v>7079697828</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="16"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="1"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <f>SUM(E24:E32)</f>
+        <v>27869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="11" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>1999</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="10">
-        <v>8053983617</v>
-      </c>
-      <c r="I33" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>2000</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="10">
-        <v>9910852994</v>
-      </c>
-      <c r="I34" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" s="8">
-        <v>42771</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>28</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35">
-        <v>2760</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="10">
-        <v>8053983617</v>
-      </c>
-      <c r="I35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="O35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
-        <v>3201</v>
+        <v>1999</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H36" s="10">
-        <v>9013286657</v>
+        <v>8053983617</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37">
-        <v>2470</v>
+        <v>2000</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="H37" s="10">
-        <v>9540110342</v>
+        <v>9910852994</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="O37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O37" s="8">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>138</v>
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H38" s="10">
-        <v>9610249336</v>
+        <v>8053983617</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O38" s="8">
-        <v>42921</v>
+      <c r="N38" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O38" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>143</v>
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39">
-        <v>3382</v>
+        <v>3201</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>141</v>
+      <c r="G39" t="s">
+        <v>130</v>
       </c>
       <c r="H39" s="10">
-        <v>8076381448</v>
+        <v>9013286657</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s">
         <v>19</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="O39" s="8">
-        <v>42772</v>
+        <v>128</v>
+      </c>
+      <c r="O39" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s">
-        <v>158</v>
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="11">
-        <v>4000</v>
+      <c r="E40">
+        <v>2470</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="3">
-        <v>9560910718</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J40">
-        <v>250</v>
+        <v>29</v>
+      </c>
+      <c r="H40" s="10">
+        <v>9540110342</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="10">
+        <v>9610249336</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" s="8">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>3382</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="10">
+        <v>8076381448</v>
+      </c>
+      <c r="I42" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O42" s="8">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="3">
+        <v>9560910718</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O43" s="8">
         <v>42891</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <f>SUM(E33:E40)</f>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f>SUM(E36:E43)</f>
         <v>19812</v>
       </c>
     </row>
@@ -2584,7 +2696,7 @@
     <hyperlink ref="I18" r:id="rId15"/>
     <hyperlink ref="I19" r:id="rId16"/>
     <hyperlink ref="I30" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
-    <hyperlink ref="I40" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
+    <hyperlink ref="I43" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -2595,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2749,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,9 +2873,10 @@
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>147</v>
       </c>
@@ -2773,23 +2886,32 @@
       <c r="D1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2">
-        <v>26520</v>
+      <c r="B2" s="2">
+        <v>27869</v>
       </c>
       <c r="C2">
         <v>21335</v>
       </c>
       <c r="D2" s="2">
         <f>(B2 - C2)</f>
-        <v>5185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6534</v>
+      </c>
+      <c r="E2">
+        <v>6000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="179">
   <si>
     <t>Sno</t>
   </si>
@@ -535,6 +535,24 @@
   </si>
   <si>
     <t>transferred</t>
+  </si>
+  <si>
+    <t>Manna Deb</t>
+  </si>
+  <si>
+    <t>PC based motor control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELRMKA310033 </t>
+  </si>
+  <si>
+    <t>Paigrism Removal</t>
+  </si>
+  <si>
+    <t>Abhishek PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELDOD0590035 </t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="B18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,333 +2365,393 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G33" s="16"/>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>3800</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="1"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="2">
-        <f>SUM(E24:E32)</f>
-        <v>27869</v>
+      <c r="J33">
+        <v>550</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>800</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="10">
+        <v>9990873751</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>800</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O34" s="8">
+        <v>42776</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="11" t="s">
+      <c r="E35" s="2">
+        <f>SUM(E24:E34)</f>
+        <v>32469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>26</v>
-      </c>
-      <c r="B36">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>1999</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="10">
-        <v>8053983617</v>
-      </c>
-      <c r="I36" t="s">
-        <v>119</v>
-      </c>
-      <c r="L36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H37" s="10">
-        <v>9910852994</v>
+        <v>8053983617</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="O37" s="8">
-        <v>42771</v>
+        <v>120</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>2760</v>
+        <v>2000</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H38" s="10">
-        <v>8053983617</v>
+        <v>9910852994</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L38" t="s">
         <v>19</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="O38" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="O38" s="8">
+        <v>42771</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>16</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39">
-        <v>3201</v>
+        <v>2760</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H39" s="10">
-        <v>9013286657</v>
+        <v>8053983617</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L39" t="s">
         <v>19</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40">
-        <v>2470</v>
+        <v>3201</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="H40" s="10">
-        <v>9540110342</v>
+        <v>9013286657</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="18" t="s">
-        <v>134</v>
+      <c r="N40" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="O40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>18</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>138</v>
+        <v>17</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2470</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="H41" s="10">
-        <v>9610249336</v>
+        <v>9540110342</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
         <v>19</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O41" s="8">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="O41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>143</v>
+        <v>18</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
       <c r="E42">
-        <v>3382</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>141</v>
+      <c r="G42" t="s">
+        <v>137</v>
       </c>
       <c r="H42" s="10">
-        <v>8076381448</v>
+        <v>9610249336</v>
       </c>
       <c r="I42" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="L42" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="19" t="s">
-        <v>140</v>
+      <c r="N42" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="O42" s="8">
-        <v>42772</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="11">
-        <v>4000</v>
+      <c r="E43">
+        <v>3382</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="3">
-        <v>9560910718</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J43">
-        <v>250</v>
+      <c r="G43" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="10">
+        <v>8076381448</v>
+      </c>
+      <c r="I43" t="s">
+        <v>142</v>
       </c>
       <c r="L43" t="s">
         <v>19</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N43" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="8">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="3">
+        <v>9560910718</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44">
+        <v>250</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O44" s="8">
         <v>42891</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <f>SUM(E36:E43)</f>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>SUM(E37:E44)</f>
         <v>19812</v>
       </c>
     </row>
@@ -2696,7 +2774,7 @@
     <hyperlink ref="I18" r:id="rId15"/>
     <hyperlink ref="I19" r:id="rId16"/>
     <hyperlink ref="I30" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
-    <hyperlink ref="I43" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
+    <hyperlink ref="I44" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -2864,7 +2942,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,20 +2973,21 @@
         <v>79</v>
       </c>
       <c r="B2" s="2">
-        <v>27869</v>
+        <v>32469</v>
       </c>
       <c r="C2">
         <v>21335</v>
       </c>
       <c r="D2" s="2">
         <f>(B2 - C2)</f>
-        <v>6534</v>
+        <v>11134</v>
       </c>
       <c r="E2">
         <v>6000</v>
       </c>
       <c r="F2" s="2">
-        <v>12534</v>
+        <f>SUM(D2:E2)</f>
+        <v>17134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Expenditure Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Money Distribution" sheetId="3" r:id="rId3"/>
+    <sheet name="Money Distribution" sheetId="4" r:id="rId3"/>
+    <sheet name="Profit Distribution" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="196">
   <si>
     <t>Sno</t>
   </si>
@@ -345,12 +346,6 @@
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
-    <t>Money Left</t>
-  </si>
-  <si>
     <t>INVOICES RECEIVED BY SAURAV</t>
   </si>
   <si>
@@ -459,9 +454,6 @@
     <t>Bikanerwala</t>
   </si>
   <si>
-    <t>Payment Received (2017)</t>
-  </si>
-  <si>
     <t>Parisha</t>
   </si>
   <si>
@@ -534,9 +526,6 @@
     <t>21-09-2017</t>
   </si>
   <si>
-    <t>transferred</t>
-  </si>
-  <si>
     <t>Manna Deb</t>
   </si>
   <si>
@@ -553,6 +542,69 @@
   </si>
   <si>
     <t xml:space="preserve">ELDOD0590035 </t>
+  </si>
+  <si>
+    <t>transferred to saurav</t>
+  </si>
+  <si>
+    <t>robotic arm</t>
+  </si>
+  <si>
+    <t>components 21/1</t>
+  </si>
+  <si>
+    <t>components07/02</t>
+  </si>
+  <si>
+    <t>Bless</t>
+  </si>
+  <si>
+    <t>Raju Return</t>
+  </si>
+  <si>
+    <t>Payment Recived</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Income Distribution</t>
+  </si>
+  <si>
+    <t>Money from Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery </t>
+  </si>
+  <si>
+    <t>Expense Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense </t>
+  </si>
+  <si>
+    <t>Asset + Cash</t>
+  </si>
+  <si>
+    <t>Cash Left in 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Period </t>
+  </si>
+  <si>
+    <t>Payment 2016</t>
+  </si>
+  <si>
+    <t>Money Recived</t>
+  </si>
+  <si>
+    <t>Delivery Charges</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Delivery (2017)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +717,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +739,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +780,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,6 +806,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -764,6 +824,1135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Investment</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{51D23646-7291-435F-977E-8F7E6A3B44C1}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Delivery
+</a:t>
+                    </a:r>
+                    <a:fld id="{1EE0F15B-9560-40CE-966C-A187BD476190}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Profit
+</a:t>
+                    </a:r>
+                    <a:fld id="{D1409705-E694-4E2B-81C0-CB8474F1290B}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Profit Distribution'!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,15 +2244,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="C23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
@@ -1201,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K4">
         <v>250</v>
@@ -1210,7 +2399,8 @@
         <v>8</v>
       </c>
       <c r="M4">
-        <v>770</v>
+        <f t="shared" ref="M4:M13" si="0">(E4-(F4+J4))</f>
+        <v>520</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
@@ -1254,6 +2444,7 @@
         <v>19</v>
       </c>
       <c r="M5">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="N5" t="s">
@@ -1298,6 +2489,7 @@
         <v>19</v>
       </c>
       <c r="M6">
+        <f t="shared" si="0"/>
         <v>3090</v>
       </c>
       <c r="N6" t="s">
@@ -1342,6 +2534,7 @@
         <v>19</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
         <v>1760</v>
       </c>
       <c r="N7" t="s">
@@ -1386,6 +2579,7 @@
         <v>19</v>
       </c>
       <c r="M8">
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="N8" t="s">
@@ -1430,6 +2624,7 @@
         <v>19</v>
       </c>
       <c r="M9">
+        <f t="shared" si="0"/>
         <v>815</v>
       </c>
       <c r="N9" t="s">
@@ -1474,6 +2669,7 @@
         <v>19</v>
       </c>
       <c r="M10">
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="N10" t="s">
@@ -1518,6 +2714,7 @@
         <v>19</v>
       </c>
       <c r="M11">
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
       <c r="N11" t="s">
@@ -1562,6 +2759,7 @@
         <v>19</v>
       </c>
       <c r="M12">
+        <f t="shared" si="0"/>
         <v>2261</v>
       </c>
       <c r="N12" t="s">
@@ -1606,6 +2804,7 @@
         <v>19</v>
       </c>
       <c r="M13">
+        <f t="shared" si="0"/>
         <v>522</v>
       </c>
       <c r="N13" t="s">
@@ -1630,16 +2829,13 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2">
         <f>SUM(J4:J13)</f>
-        <v>400</v>
-      </c>
-      <c r="K14" s="2">
-        <f>SUM(K4:K13)</f>
-        <v>250</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2">
         <f>SUM(M4:M13)</f>
-        <v>11633</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
@@ -1688,6 +2884,7 @@
         <v>19</v>
       </c>
       <c r="M16">
+        <f>(E16-(F16+J16))</f>
         <v>190</v>
       </c>
       <c r="N16" t="s">
@@ -1735,6 +2932,7 @@
         <v>19</v>
       </c>
       <c r="M17">
+        <f t="shared" ref="M17:M21" si="1">(E17-(F17+J17))</f>
         <v>100</v>
       </c>
       <c r="N17" t="s">
@@ -1758,7 +2956,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>2920</v>
+        <v>3150</v>
       </c>
       <c r="F18">
         <v>900</v>
@@ -1782,10 +2980,11 @@
         <v>19</v>
       </c>
       <c r="M18">
-        <v>1970</v>
+        <f t="shared" si="1"/>
+        <v>2200</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O18" t="s">
         <v>72</v>
@@ -1829,10 +3028,11 @@
         <v>19</v>
       </c>
       <c r="M19">
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
         <v>72</v>
@@ -1876,10 +3076,11 @@
         <v>19</v>
       </c>
       <c r="M20">
+        <f t="shared" si="1"/>
         <v>2840</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O20" s="8">
         <v>42949</v>
@@ -1899,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>2600</v>
+        <v>2790</v>
       </c>
       <c r="F21">
         <v>950</v>
@@ -1922,11 +3123,12 @@
       <c r="L21" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="4">
-        <v>0</v>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1490</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>18</v>
@@ -1938,7 +3140,19 @@
       </c>
       <c r="E22" s="2">
         <f>SUM(E16:E21)</f>
-        <v>12720</v>
+        <v>13140</v>
+      </c>
+      <c r="F22" s="11">
+        <f>SUM(F16:F21)</f>
+        <v>5455</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J16:J21)</f>
+        <v>480</v>
+      </c>
+      <c r="M22" s="11">
+        <f>SUM(M16:M21)</f>
+        <v>7205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1946,7 +3160,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1963,7 +3177,7 @@
         <v>16</v>
       </c>
       <c r="E24">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1987,7 +3201,8 @@
         <v>79</v>
       </c>
       <c r="M24">
-        <v>2600</v>
+        <f t="shared" ref="M24:M34" si="2">(E24-(F24+J24))</f>
+        <v>2604</v>
       </c>
       <c r="N24" t="s">
         <v>80</v>
@@ -2016,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <v>2600</v>
+        <v>2760</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2040,7 +3255,8 @@
         <v>79</v>
       </c>
       <c r="M25">
-        <v>2600</v>
+        <f t="shared" si="2"/>
+        <v>2760</v>
       </c>
       <c r="N25" t="s">
         <v>87</v>
@@ -2093,6 +3309,7 @@
         <v>79</v>
       </c>
       <c r="M26">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="N26" t="s">
@@ -2122,7 +3339,7 @@
         <v>16</v>
       </c>
       <c r="E27">
-        <v>3680</v>
+        <v>3580</v>
       </c>
       <c r="F27">
         <v>1550</v>
@@ -2134,7 +3351,7 @@
         <v>7726815119</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J27">
         <v>530</v>
@@ -2146,6 +3363,7 @@
         <v>59</v>
       </c>
       <c r="M27">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="N27" t="s">
@@ -2172,7 +3390,7 @@
         <v>3990</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -2183,11 +3401,18 @@
       <c r="I28" t="s">
         <v>95</v>
       </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2440</v>
       </c>
       <c r="N28" s="18" t="s">
         <v>96</v>
@@ -2204,25 +3429,25 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>7200</v>
+        <v>7288</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H29" s="10">
         <v>9999613491</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2234,13 +3459,14 @@
         <v>79</v>
       </c>
       <c r="M29">
-        <v>7200</v>
+        <f t="shared" si="2"/>
+        <v>7288</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P29">
         <v>12</v>
@@ -2254,7 +3480,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -2263,25 +3489,29 @@
         <v>3950</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H30" s="10">
         <v>9999068027</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J30">
         <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>2599</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O30" s="8">
         <v>42893</v>
@@ -2295,10 +3525,10 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E31">
         <v>350</v>
@@ -2307,7 +3537,7 @@
         <v>300</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="1"/>
@@ -2318,10 +3548,11 @@
         <v>79</v>
       </c>
       <c r="M31">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O31" s="8"/>
     </row>
@@ -2333,7 +3564,7 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2345,7 +3576,7 @@
         <v>200</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H32" s="16">
         <v>7079697828</v>
@@ -2357,11 +3588,15 @@
       <c r="L32" t="s">
         <v>79</v>
       </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>799</v>
+      </c>
       <c r="N32" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2369,7 +3604,7 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2377,22 +3612,29 @@
       <c r="E33">
         <v>3800</v>
       </c>
+      <c r="F33">
+        <v>950</v>
+      </c>
       <c r="G33" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="1"/>
       <c r="J33">
-        <v>550</v>
+        <v>870</v>
       </c>
       <c r="L33" t="s">
         <v>19</v>
       </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
       <c r="N33" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2400,7 +3642,7 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -2412,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H34" s="10">
         <v>9990873751</v>
@@ -2422,10 +3664,11 @@
         <v>0</v>
       </c>
       <c r="M34">
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="N34" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O34" s="8">
         <v>42776</v>
@@ -2434,12 +3677,24 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f>SUM(E24:E34)</f>
-        <v>32469</v>
+        <v>32621</v>
+      </c>
+      <c r="F35" s="11">
+        <f>SUM(F24:F34)</f>
+        <v>5150</v>
+      </c>
+      <c r="J35">
+        <f>SUM(J24:J34)</f>
+        <v>2151</v>
+      </c>
+      <c r="M35" s="11">
+        <f>SUM(M24:M34)</f>
+        <v>25320</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C36" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2450,7 +3705,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -2462,19 +3717,26 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H37" s="10">
         <v>8053983617</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="J37">
+        <v>35</v>
       </c>
       <c r="L37" t="s">
         <v>19</v>
       </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M44" si="3">(E37-(F37+J37))</f>
+        <v>1964</v>
+      </c>
       <c r="N37" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" t="s">
         <v>97</v>
@@ -2488,7 +3750,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -2500,19 +3762,26 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" s="10">
         <v>9910852994</v>
       </c>
       <c r="I38" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
       </c>
       <c r="L38" t="s">
         <v>19</v>
       </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>1990</v>
+      </c>
       <c r="N38" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8">
         <v>42771</v>
@@ -2526,7 +3795,7 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -2535,25 +3804,32 @@
         <v>2760</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H39" s="10">
         <v>8053983617</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
       </c>
       <c r="L39" t="s">
         <v>19</v>
       </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>1730</v>
+      </c>
       <c r="N39" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2564,7 +3840,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2573,25 +3849,32 @@
         <v>3201</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H40" s="10">
         <v>9013286657</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="J40">
+        <v>70</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
       </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>1831</v>
+      </c>
       <c r="N40" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2602,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -2611,7 +3894,7 @@
         <v>2470</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -2622,14 +3905,21 @@
       <c r="I41" t="s">
         <v>12</v>
       </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
       <c r="L41" t="s">
         <v>19</v>
       </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>970</v>
+      </c>
       <c r="N41" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O41" t="s">
         <v>134</v>
-      </c>
-      <c r="O41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2640,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -2649,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H42" s="10">
         <v>9610249336</v>
@@ -2660,11 +3950,18 @@
       <c r="I42" t="s">
         <v>95</v>
       </c>
+      <c r="J42">
+        <v>600</v>
+      </c>
       <c r="L42" t="s">
         <v>19</v>
       </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>-1400</v>
+      </c>
       <c r="N42" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8">
         <v>42921</v>
@@ -2678,7 +3975,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
@@ -2687,22 +3984,29 @@
         <v>3382</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H43" s="10">
         <v>8076381448</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="L43" t="s">
         <v>19</v>
       </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>1532</v>
+      </c>
       <c r="N43" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8">
         <v>42772</v>
@@ -2716,7 +4020,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
@@ -2725,16 +4029,16 @@
         <v>4000</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H44" s="3">
         <v>9560910718</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J44">
         <v>250</v>
@@ -2742,17 +4046,33 @@
       <c r="L44" t="s">
         <v>19</v>
       </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
       <c r="N44" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O44" s="8">
         <v>42891</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E45">
+      <c r="E45" s="11">
         <f>SUM(E37:E44)</f>
         <v>19812</v>
+      </c>
+      <c r="F45" s="11">
+        <f>SUM(F37:F44)</f>
+        <v>7530</v>
+      </c>
+      <c r="J45">
+        <f>SUM(J37:J44)</f>
+        <v>1115</v>
+      </c>
+      <c r="M45" s="11">
+        <f>SUM(M37:M44)</f>
+        <v>11167</v>
       </c>
     </row>
   </sheetData>
@@ -2783,10 +4103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,7 +4120,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -2870,7 +4190,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4">
         <v>964</v>
@@ -2879,7 +4199,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11">
         <v>1053</v>
@@ -2887,7 +4207,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>351</v>
@@ -2895,7 +4215,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13">
         <v>217</v>
@@ -2903,7 +4223,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14">
         <v>8907</v>
@@ -2911,27 +4231,132 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B15">
         <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
       <c r="B16">
-        <f>SUM(B3:B15)</f>
-        <v>21335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B3:B16)</f>
+        <v>22835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>113</v>
+      <c r="B32" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>42866</v>
+      </c>
+      <c r="B39">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>42845</v>
+      </c>
+      <c r="B40">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>42853</v>
+      </c>
+      <c r="B41">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>43009</v>
+      </c>
+      <c r="B42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>43022</v>
+      </c>
+      <c r="B43">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>SUM(B34:B44)</f>
+        <v>27202</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A34">
+    <sortCondition descending="1" ref="A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2939,67 +4364,257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2">
-        <v>32469</v>
+        <v>181</v>
+      </c>
+      <c r="B2">
+        <v>38621</v>
       </c>
       <c r="C2">
-        <v>21335</v>
-      </c>
-      <c r="D2" s="2">
-        <f>(B2 - C2)</f>
-        <v>11134</v>
-      </c>
-      <c r="E2">
+        <v>36939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>22835</v>
+      </c>
+      <c r="C3">
+        <v>27202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <f>(B2-B3)</f>
+        <v>15786</v>
+      </c>
+      <c r="C4" s="11">
+        <f>(C2-C3)</f>
+        <v>9737</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(B4:F4)</f>
+        <v>25523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9">
+        <v>32621</v>
+      </c>
+      <c r="C9">
+        <v>32952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10">
         <v>6000</v>
       </c>
-      <c r="F2" s="2">
-        <f>SUM(D2:E2)</f>
-        <v>17134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>32532</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <f>SUM(B9:B11)</f>
+        <v>38621</v>
+      </c>
+      <c r="C12" s="11">
+        <f>SUM(C9:C11)</f>
+        <v>36939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15">
+        <v>22835</v>
+      </c>
+      <c r="C15">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <f>SUM(B15:B16)</f>
+        <v>22835</v>
+      </c>
+      <c r="C17" s="11">
+        <f>SUM(C15:C16)</f>
+        <v>27202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2">
+        <v>15600</v>
+      </c>
+      <c r="C2">
+        <v>3567</v>
+      </c>
+      <c r="D2">
+        <v>650</v>
+      </c>
+      <c r="E2">
+        <f>(B2-(C2+D2))</f>
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>32621</v>
+      </c>
+      <c r="C3">
+        <v>5150</v>
+      </c>
+      <c r="D3">
+        <v>2151</v>
+      </c>
+      <c r="E3">
+        <f>(B3-(C3+D3))</f>
+        <v>25320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>32952</v>
+      </c>
+      <c r="C4">
+        <v>12985</v>
+      </c>
+      <c r="D4">
+        <v>1595</v>
+      </c>
+      <c r="E4">
+        <f>(B4-(C4+D4))</f>
+        <v>18372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <f>SUM(B2:B4)</f>
+        <v>81173</v>
+      </c>
+      <c r="C5" s="11">
+        <f>SUM(C2:C4)</f>
+        <v>21702</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUM(D2:D4)</f>
+        <v>4396</v>
+      </c>
+      <c r="E5" s="11">
+        <f>SUM(E2:E4)</f>
+        <v>55075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="203">
   <si>
     <t>Sno</t>
   </si>
@@ -605,6 +605,27 @@
   </si>
   <si>
     <t>Delivery (2017)</t>
+  </si>
+  <si>
+    <t>Punjab Grill</t>
+  </si>
+  <si>
+    <t>Carls Jr</t>
+  </si>
+  <si>
+    <t>File tracking system</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robert.bhalla71@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELSWD059036 </t>
+  </si>
+  <si>
+    <t>25/10/2017</t>
   </si>
 </sst>
 </file>
@@ -1183,9 +1204,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -1201,7 +1220,7 @@
                   <c:v>4396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55075</c:v>
+                  <c:v>58575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,9 +2381,6 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -2407,9 +2423,6 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -2452,9 +2465,6 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
       <c r="B6">
         <v>3</v>
       </c>
@@ -2497,9 +2507,6 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
       <c r="B7">
         <v>4</v>
       </c>
@@ -2542,9 +2549,6 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
       <c r="B8">
         <v>5</v>
       </c>
@@ -2587,9 +2591,6 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
       <c r="B9">
         <v>6</v>
       </c>
@@ -2632,9 +2633,6 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
       <c r="B10">
         <v>7</v>
       </c>
@@ -2677,9 +2675,6 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
       <c r="B11">
         <v>8</v>
       </c>
@@ -2722,9 +2717,6 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
       <c r="B12">
         <v>9</v>
       </c>
@@ -2767,9 +2759,6 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
       <c r="B13">
         <v>10</v>
       </c>
@@ -2847,9 +2836,6 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
       <c r="B16">
         <v>1</v>
       </c>
@@ -2894,10 +2880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
@@ -2942,10 +2925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3</v>
       </c>
@@ -2990,10 +2970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>4</v>
       </c>
@@ -3038,10 +3015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5</v>
       </c>
@@ -3086,10 +3060,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>6</v>
       </c>
@@ -3134,10 +3105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f>SUM(E16:E21)</f>
         <v>13140</v>
@@ -3155,18 +3123,12 @@
         <v>7205</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>7</v>
       </c>
@@ -3201,7 +3163,7 @@
         <v>79</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M34" si="2">(E24-(F24+J24))</f>
+        <f t="shared" ref="M24:M35" si="2">(E24-(F24+J24))</f>
         <v>2604</v>
       </c>
       <c r="N24" t="s">
@@ -3217,10 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>8</v>
       </c>
@@ -3271,10 +3230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>9</v>
       </c>
@@ -3325,10 +3281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>10</v>
       </c>
@@ -3373,10 +3326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>11</v>
       </c>
@@ -3421,10 +3371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>12</v>
       </c>
@@ -3472,12 +3419,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>33</v>
-      </c>
+    <row r="30" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>149</v>
@@ -3517,12 +3461,9 @@
         <v>42893</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>34</v>
-      </c>
+    <row r="31" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>161</v>
@@ -3556,12 +3497,9 @@
       </c>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>35</v>
-      </c>
+    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
@@ -3599,9 +3537,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>170</v>
@@ -3637,9 +3575,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>172</v>
@@ -3663,6 +3601,9 @@
       <c r="J34">
         <v>0</v>
       </c>
+      <c r="L34" t="s">
+        <v>79</v>
+      </c>
       <c r="M34">
         <f t="shared" si="2"/>
         <v>800</v>
@@ -3674,405 +3615,423 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="2">
-        <f>SUM(E24:E34)</f>
-        <v>32621</v>
+    <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3500</v>
       </c>
       <c r="F35" s="11">
-        <f>SUM(F24:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35">
+        <v>9873070230</v>
+      </c>
+      <c r="I35" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="N35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="11">
+        <f>SUM(E24:E35)</f>
+        <v>36121</v>
+      </c>
+      <c r="F36" s="11">
+        <f>SUM(F24:F35)</f>
         <v>5150</v>
       </c>
-      <c r="J35">
-        <f>SUM(J24:J34)</f>
+      <c r="J36">
+        <f>SUM(J24:J35)</f>
         <v>2151</v>
       </c>
-      <c r="M35" s="11">
-        <f>SUM(M24:M34)</f>
-        <v>25320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="s">
+      <c r="M36">
+        <f>SUM(M24:M35)</f>
+        <v>28820</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E45" s="11">
+        <f>SUM(E47:E54)</f>
+        <v>19812</v>
+      </c>
+      <c r="F45" s="11">
+        <f>SUM(F47:F54)</f>
+        <v>7530</v>
+      </c>
+      <c r="J45">
+        <f>SUM(J47:J54)</f>
+        <v>1115</v>
+      </c>
+      <c r="M45" s="11">
+        <f>SUM(M47:M54)</f>
+        <v>11167</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>26</v>
-      </c>
-      <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="47" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
         <v>123</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E37">
+      <c r="E47">
         <v>1999</v>
       </c>
-      <c r="F37">
+      <c r="F47">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G47" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H47" s="10">
         <v>8053983617</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I47" t="s">
         <v>117</v>
       </c>
-      <c r="J37">
+      <c r="J47">
         <v>35</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L47" t="s">
         <v>19</v>
       </c>
-      <c r="M37">
-        <f t="shared" ref="M37:M44" si="3">(E37-(F37+J37))</f>
+      <c r="M47">
+        <f t="shared" ref="M47:M54" si="3">(E47-(F47+J47))</f>
         <v>1964</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N47" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>27</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
+      <c r="E48">
         <v>2000</v>
       </c>
-      <c r="F38">
+      <c r="F48">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G48" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H48" s="10">
         <v>9910852994</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I48" t="s">
         <v>121</v>
       </c>
-      <c r="J38">
+      <c r="J48">
         <v>10</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L48" t="s">
         <v>19</v>
       </c>
-      <c r="M38">
+      <c r="M48">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N48" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O48" s="8">
         <v>42771</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>28</v>
-      </c>
-      <c r="B39">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="49" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E39">
+      <c r="E49">
         <v>2760</v>
       </c>
-      <c r="F39">
+      <c r="F49">
         <v>930</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G49" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H49" s="10">
         <v>8053983617</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I49" t="s">
         <v>117</v>
       </c>
-      <c r="J39">
+      <c r="J49">
         <v>100</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L49" t="s">
         <v>19</v>
       </c>
-      <c r="M39">
+      <c r="M49">
         <f t="shared" si="3"/>
         <v>1730</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>29</v>
-      </c>
-      <c r="B40">
+    <row r="50" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40">
+      <c r="E50">
         <v>3201</v>
       </c>
-      <c r="F40">
+      <c r="F50">
         <v>1300</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G50" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H50" s="10">
         <v>9013286657</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I50" t="s">
         <v>130</v>
       </c>
-      <c r="J40">
+      <c r="J50">
         <v>70</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L50" t="s">
         <v>19</v>
       </c>
-      <c r="M40">
+      <c r="M50">
         <f t="shared" si="3"/>
         <v>1831</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N50" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>30</v>
-      </c>
-      <c r="B41">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4" t="s">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E41">
+      <c r="E51">
         <v>2470</v>
       </c>
-      <c r="F41">
+      <c r="F51">
         <v>1450</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G51" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H51" s="10">
         <v>9540110342</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="J41">
+      <c r="J51">
         <v>50</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L51" t="s">
         <v>19</v>
       </c>
-      <c r="M41">
+      <c r="M51">
         <f t="shared" si="3"/>
         <v>970</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N51" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>31</v>
-      </c>
-      <c r="B42">
-        <v>18</v>
-      </c>
-      <c r="C42" s="17" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F52">
         <v>800</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G52" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H52" s="10">
         <v>9610249336</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I52" t="s">
         <v>95</v>
       </c>
-      <c r="J42">
+      <c r="J52">
         <v>600</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L52" t="s">
         <v>19</v>
       </c>
-      <c r="M42">
+      <c r="M52">
         <f t="shared" si="3"/>
         <v>-1400</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N52" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O52" s="8">
         <v>42921</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>32</v>
-      </c>
-      <c r="B43">
+    <row r="53" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>3382</v>
+      </c>
+      <c r="F53">
+        <v>1850</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="10">
+        <v>8076381448</v>
+      </c>
+      <c r="I53" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43">
-        <v>3382</v>
-      </c>
-      <c r="F43">
-        <v>1850</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="10">
-        <v>8076381448</v>
-      </c>
-      <c r="I43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>1532</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N53" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O53" s="8">
         <v>42772</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>34</v>
-      </c>
-      <c r="B44">
-        <v>21</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E54" s="11">
         <v>4000</v>
       </c>
-      <c r="F44">
+      <c r="F54">
         <v>1200</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G54" t="s">
         <v>156</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H54" s="3">
         <v>9560910718</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J44">
+      <c r="J54">
         <v>250</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L54" t="s">
         <v>19</v>
       </c>
-      <c r="M44">
+      <c r="M54">
         <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N54" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O54" s="8">
         <v>42891</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="11">
-        <f>SUM(E37:E44)</f>
-        <v>19812</v>
-      </c>
-      <c r="F45" s="11">
-        <f>SUM(F37:F44)</f>
-        <v>7530</v>
-      </c>
-      <c r="J45">
-        <f>SUM(J37:J44)</f>
-        <v>1115</v>
-      </c>
-      <c r="M45" s="11">
-        <f>SUM(M37:M44)</f>
-        <v>11167</v>
       </c>
     </row>
   </sheetData>
@@ -4094,7 +4053,7 @@
     <hyperlink ref="I18" r:id="rId15"/>
     <hyperlink ref="I19" r:id="rId16"/>
     <hyperlink ref="I30" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
-    <hyperlink ref="I44" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
+    <hyperlink ref="I54" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -4105,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,9 +4205,25 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
       <c r="B17">
-        <f>SUM(B3:B16)</f>
-        <v>22835</v>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>SUM(B3:B18)</f>
+        <v>24230</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4342,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,7 +4369,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>38621</v>
+        <v>42121</v>
       </c>
       <c r="C2">
         <v>36939</v>
@@ -4405,7 +4380,7 @@
         <v>182</v>
       </c>
       <c r="B3">
-        <v>22835</v>
+        <v>24230</v>
       </c>
       <c r="C3">
         <v>27202</v>
@@ -4414,7 +4389,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>(B2-B3)</f>
-        <v>15786</v>
+        <v>17891</v>
       </c>
       <c r="C4" s="11">
         <f>(C2-C3)</f>
@@ -4422,7 +4397,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(B4:F4)</f>
-        <v>25523</v>
+        <v>27628</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4435,7 +4410,7 @@
         <v>181</v>
       </c>
       <c r="B9">
-        <v>32621</v>
+        <v>36121</v>
       </c>
       <c r="C9">
         <v>32952</v>
@@ -4460,7 +4435,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>SUM(B9:B11)</f>
-        <v>38621</v>
+        <v>42121</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C9:C11)</f>
@@ -4477,7 +4452,7 @@
         <v>187</v>
       </c>
       <c r="B15">
-        <v>22835</v>
+        <v>24230</v>
       </c>
       <c r="C15">
         <v>23456</v>
@@ -4494,7 +4469,7 @@
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>SUM(B15:B16)</f>
-        <v>22835</v>
+        <v>24230</v>
       </c>
       <c r="C17" s="11">
         <f>SUM(C15:C16)</f>
@@ -4512,7 +4487,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4539,7 @@
         <v>109</v>
       </c>
       <c r="B3">
-        <v>32621</v>
+        <v>36121</v>
       </c>
       <c r="C3">
         <v>5150</v>
@@ -4574,7 +4549,7 @@
       </c>
       <c r="E3">
         <f>(B3-(C3+D3))</f>
-        <v>25320</v>
+        <v>28820</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,7 +4573,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
-        <v>81173</v>
+        <v>84673</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
@@ -4610,7 +4585,7 @@
       </c>
       <c r="E5" s="11">
         <f>SUM(E2:E4)</f>
-        <v>55075</v>
+        <v>58575</v>
       </c>
     </row>
   </sheetData>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
   <si>
     <t>Sno</t>
   </si>
@@ -626,6 +626,48 @@
   </si>
   <si>
     <t>25/10/2017</t>
+  </si>
+  <si>
+    <t>Application/Web Robotic Arm</t>
+  </si>
+  <si>
+    <t>Ashank Rudola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashankrudola@gmail.com </t>
+  </si>
+  <si>
+    <t>ELRMD022037</t>
+  </si>
+  <si>
+    <t>29/10/2017</t>
+  </si>
+  <si>
+    <t>Gesture Controlled Robotic Vehicle</t>
+  </si>
+  <si>
+    <t>Sachin Shrivastava</t>
+  </si>
+  <si>
+    <t>sachin.srivastava139@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELRMD015038 </t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>cable and extra</t>
+  </si>
+  <si>
+    <t>Ds3231</t>
+  </si>
+  <si>
+    <t>raspi ds3231</t>
+  </si>
+  <si>
+    <t>Extra packing cost</t>
   </si>
 </sst>
 </file>
@@ -1214,13 +1256,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21702</c:v>
+                  <c:v>26902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4396</c:v>
+                  <c:v>4496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58575</c:v>
+                  <c:v>65581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="D24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +3205,7 @@
         <v>79</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M35" si="2">(E24-(F24+J24))</f>
+        <f t="shared" ref="M24:M37" si="2">(E24-(F24+J24))</f>
         <v>2604</v>
       </c>
       <c r="N24" t="s">
@@ -3382,7 +3424,7 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>7288</v>
+        <v>7194</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3407,7 +3449,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>7288</v>
+        <v>7194</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>153</v>
@@ -3657,33 +3699,111 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="11">
-        <f>SUM(E24:E35)</f>
-        <v>36121</v>
-      </c>
-      <c r="F36" s="11">
-        <f>SUM(F24:F35)</f>
-        <v>5150</v>
+    <row r="36" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6400</v>
+      </c>
+      <c r="F36">
+        <v>3100</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36">
+        <v>8527743717</v>
+      </c>
+      <c r="I36" t="s">
+        <v>205</v>
       </c>
       <c r="J36">
-        <f>SUM(J24:J35)</f>
-        <v>2151</v>
+        <v>50</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
       </c>
       <c r="M36">
-        <f>SUM(M24:M35)</f>
-        <v>28820</v>
+        <f t="shared" si="2"/>
+        <v>3250</v>
+      </c>
+      <c r="N36" t="s">
+        <v>206</v>
+      </c>
+      <c r="O36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F37">
+        <v>2100</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37">
+        <v>8800122322</v>
+      </c>
+      <c r="I37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>3850</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="11">
+        <f>SUM(E24:E37)</f>
+        <v>48427</v>
+      </c>
+      <c r="F38" s="11">
+        <f>SUM(F24:F37)</f>
+        <v>10350</v>
+      </c>
+      <c r="J38" s="11">
+        <f>SUM(J24:J37)</f>
+        <v>2251</v>
+      </c>
+      <c r="M38" s="11">
+        <f>SUM(M24:M37)</f>
+        <v>35826</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="11">
-        <f>SUM(E47:E54)</f>
-        <v>19812</v>
-      </c>
-      <c r="F45" s="11">
-        <f>SUM(F47:F54)</f>
-        <v>7530</v>
-      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="J45">
         <f>SUM(J47:J54)</f>
         <v>1115</v>
@@ -4032,6 +4152,31 @@
       </c>
       <c r="O54" s="8">
         <v>42891</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E56" s="11">
+        <f>SUM(E47:E54)</f>
+        <v>19812</v>
+      </c>
+      <c r="F56" s="11">
+        <f>SUM(F47:F54)</f>
+        <v>7530</v>
+      </c>
+      <c r="J56" s="11">
+        <f>SUM(J47:J54)</f>
+        <v>1115</v>
+      </c>
+      <c r="M56" s="11">
+        <f>SUM(M47:M54)</f>
+        <v>11167</v>
       </c>
     </row>
   </sheetData>
@@ -4064,8 +4209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,9 +4366,49 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
       <c r="B19">
-        <f>SUM(B3:B18)</f>
-        <v>24230</v>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <f>SUM(B3:B23)</f>
+        <v>27648</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4527,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,7 +4554,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>42121</v>
+        <v>54427</v>
       </c>
       <c r="C2">
         <v>36939</v>
@@ -4380,7 +4565,7 @@
         <v>182</v>
       </c>
       <c r="B3">
-        <v>24230</v>
+        <v>27648</v>
       </c>
       <c r="C3">
         <v>27202</v>
@@ -4389,7 +4574,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>(B2-B3)</f>
-        <v>17891</v>
+        <v>26779</v>
       </c>
       <c r="C4" s="11">
         <f>(C2-C3)</f>
@@ -4397,7 +4582,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(B4:F4)</f>
-        <v>27628</v>
+        <v>36516</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4410,7 +4595,7 @@
         <v>181</v>
       </c>
       <c r="B9">
-        <v>36121</v>
+        <v>48427</v>
       </c>
       <c r="C9">
         <v>32952</v>
@@ -4435,7 +4620,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>SUM(B9:B11)</f>
-        <v>42121</v>
+        <v>54427</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C9:C11)</f>
@@ -4452,7 +4637,7 @@
         <v>187</v>
       </c>
       <c r="B15">
-        <v>24230</v>
+        <v>27648</v>
       </c>
       <c r="C15">
         <v>23456</v>
@@ -4469,7 +4654,7 @@
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>SUM(B15:B16)</f>
-        <v>24230</v>
+        <v>27648</v>
       </c>
       <c r="C17" s="11">
         <f>SUM(C15:C16)</f>
@@ -4487,7 +4672,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,17 +4724,17 @@
         <v>109</v>
       </c>
       <c r="B3">
-        <v>36121</v>
+        <v>48427</v>
       </c>
       <c r="C3">
-        <v>5150</v>
+        <v>10350</v>
       </c>
       <c r="D3">
-        <v>2151</v>
+        <v>2251</v>
       </c>
       <c r="E3">
         <f>(B3-(C3+D3))</f>
-        <v>28820</v>
+        <v>35826</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4573,19 +4758,19 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
-        <v>84673</v>
+        <v>96979</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
-        <v>21702</v>
+        <v>26902</v>
       </c>
       <c r="D5" s="11">
         <f>SUM(D2:D4)</f>
-        <v>4396</v>
+        <v>4496</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E2:E4)</f>
-        <v>58575</v>
+        <v>65581</v>
       </c>
     </row>
   </sheetData>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="230">
   <si>
     <t>Sno</t>
   </si>
@@ -668,6 +668,45 @@
   </si>
   <si>
     <t>Extra packing cost</t>
+  </si>
+  <si>
+    <t>WEFBD059039</t>
+  </si>
+  <si>
+    <t>FIle transfer system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prayash biswas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prayash.dib@gmail.com </t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>Augmented Reality Demo App</t>
+  </si>
+  <si>
+    <t>Pankaj Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">py281997@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANARD059040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELRMS690041 </t>
+  </si>
+  <si>
+    <t>Days left to go home : Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishanpal Singh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpsdagur1994@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -1256,13 +1295,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26902</c:v>
+                  <c:v>33620</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65581</c:v>
+                  <c:v>75963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="C19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,7 +3244,7 @@
         <v>79</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M37" si="2">(E24-(F24+J24))</f>
+        <f t="shared" ref="M24:M38" si="2">(E24-(F24+J24))</f>
         <v>2604</v>
       </c>
       <c r="N24" t="s">
@@ -3783,399 +3822,525 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="11">
-        <f>SUM(E24:E37)</f>
-        <v>48427</v>
-      </c>
-      <c r="F38" s="11">
-        <f>SUM(F24:F37)</f>
-        <v>10350</v>
-      </c>
-      <c r="J38" s="11">
-        <f>SUM(J24:J37)</f>
+    <row r="38" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3400</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H38">
+        <v>9560649517</v>
+      </c>
+      <c r="I38" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+      <c r="N38" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" s="8">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39">
+        <v>9999099345</v>
+      </c>
+      <c r="I39" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M40" si="3">(E39-(F39+J39))</f>
+        <v>3000</v>
+      </c>
+      <c r="N39" t="s">
+        <v>225</v>
+      </c>
+      <c r="O39" s="8">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10700</v>
+      </c>
+      <c r="F40">
+        <v>6718</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40">
+        <v>7230930069</v>
+      </c>
+      <c r="I40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>3982</v>
+      </c>
+      <c r="N40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40" s="8">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="11">
+        <f>SUM(E24:E40)</f>
+        <v>65527</v>
+      </c>
+      <c r="F41" s="11">
+        <f>SUM(F24:F40)</f>
+        <v>17068</v>
+      </c>
+      <c r="J41" s="11">
+        <f>SUM(J24:J40)</f>
         <v>2251</v>
       </c>
-      <c r="M38" s="11">
-        <f>SUM(M24:M37)</f>
-        <v>35826</v>
+      <c r="M41" s="11">
+        <f>SUM(M24:M40)</f>
+        <v>46208</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="J44">
+        <f>SUM(J46:J53)</f>
+        <v>1115</v>
+      </c>
+      <c r="M44" s="11">
+        <f>SUM(M46:M53)</f>
+        <v>11167</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="J45">
-        <f>SUM(J47:J54)</f>
-        <v>1115</v>
-      </c>
-      <c r="M45" s="11">
-        <f>SUM(M47:M54)</f>
-        <v>11167</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>1999</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="10">
+        <v>8053983617</v>
+      </c>
+      <c r="I46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:M53" si="4">(E46-(F46+J46))</f>
+        <v>1964</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H47" s="10">
-        <v>8053983617</v>
+        <v>9910852994</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J47">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L47" t="s">
         <v>19</v>
       </c>
       <c r="M47">
-        <f t="shared" ref="M47:M54" si="3">(E47-(F47+J47))</f>
-        <v>1964</v>
+        <f t="shared" si="4"/>
+        <v>1990</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="O47" t="s">
-        <v>97</v>
+        <v>119</v>
+      </c>
+      <c r="O47" s="8">
+        <v>42771</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48">
-        <v>2000</v>
+        <v>2760</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H48" s="10">
-        <v>9910852994</v>
+        <v>8053983617</v>
       </c>
       <c r="I48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J48">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s">
         <v>19</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>1990</v>
+        <f t="shared" si="4"/>
+        <v>1730</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="O48" s="8">
-        <v>42771</v>
+        <v>124</v>
+      </c>
+      <c r="O48" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49">
-        <v>2760</v>
+        <v>3201</v>
       </c>
       <c r="F49">
-        <v>930</v>
+        <v>1300</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H49" s="10">
-        <v>8053983617</v>
+        <v>9013286657</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s">
         <v>19</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>1730</v>
+        <f t="shared" si="4"/>
+        <v>1831</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>3201</v>
+        <v>2470</v>
       </c>
       <c r="F50">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="G50" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H50" s="10">
-        <v>9013286657</v>
+        <v>9540110342</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="J50">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L50" t="s">
         <v>19</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>1831</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>970</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="O50" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>23</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>133</v>
+        <v>24</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51">
-        <v>2470</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="H51" s="10">
-        <v>9540110342</v>
+        <v>9610249336</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="J51">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="L51" t="s">
         <v>19</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>970</v>
+        <f t="shared" si="4"/>
+        <v>-1400</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="O51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="O51" s="8">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>24</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>136</v>
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>141</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>3382</v>
       </c>
       <c r="F52">
-        <v>800</v>
-      </c>
-      <c r="G52" t="s">
-        <v>135</v>
+        <v>1850</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="H52" s="10">
-        <v>9610249336</v>
+        <v>8076381448</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="J52">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
         <v>19</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
-        <v>-1400</v>
-      </c>
-      <c r="N52" s="18" t="s">
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>1532</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="O52" s="8">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53">
-        <v>3382</v>
+      <c r="E53" s="11">
+        <v>4000</v>
       </c>
       <c r="F53">
-        <v>1850</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="10">
-        <v>8076381448</v>
-      </c>
-      <c r="I53" t="s">
-        <v>140</v>
+        <v>1200</v>
+      </c>
+      <c r="G53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="3">
+        <v>9560910718</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s">
         <v>19</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
-        <v>1532</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>138</v>
+        <f t="shared" si="4"/>
+        <v>2550</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="O53" s="8">
-        <v>42772</v>
+        <v>42891</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>26</v>
-      </c>
-      <c r="C54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="11">
-        <v>4000</v>
-      </c>
-      <c r="F54">
-        <v>1200</v>
-      </c>
-      <c r="G54" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9560910718</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J54">
-        <v>250</v>
-      </c>
-      <c r="L54" t="s">
-        <v>19</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="3"/>
-        <v>2550</v>
-      </c>
-      <c r="N54" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="O54" s="8">
-        <v>42891</v>
-      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E56" s="11">
-        <f>SUM(E47:E54)</f>
+      <c r="E55" s="11">
+        <f>SUM(E46:E53)</f>
         <v>19812</v>
       </c>
-      <c r="F56" s="11">
-        <f>SUM(F47:F54)</f>
+      <c r="F55" s="11">
+        <f>SUM(F46:F53)</f>
         <v>7530</v>
       </c>
-      <c r="J56" s="11">
-        <f>SUM(J47:J54)</f>
+      <c r="J55" s="11">
+        <f>SUM(J46:J53)</f>
         <v>1115</v>
       </c>
-      <c r="M56" s="11">
-        <f>SUM(M47:M54)</f>
+      <c r="M55" s="11">
+        <f>SUM(M46:M53)</f>
         <v>11167</v>
       </c>
     </row>
@@ -4198,7 +4363,7 @@
     <hyperlink ref="I18" r:id="rId15"/>
     <hyperlink ref="I19" r:id="rId16"/>
     <hyperlink ref="I30" r:id="rId17" display="mailto:parisharai.2096@gmail.com"/>
-    <hyperlink ref="I54" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
+    <hyperlink ref="I53" r:id="rId18" display="mailto:rambilekshan@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -4209,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4527,7 +4692,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,7 +4719,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>54427</v>
+        <v>65527</v>
       </c>
       <c r="C2">
         <v>36939</v>
@@ -4574,7 +4739,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>(B2-B3)</f>
-        <v>26779</v>
+        <v>37879</v>
       </c>
       <c r="C4" s="11">
         <f>(C2-C3)</f>
@@ -4582,7 +4747,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(B4:F4)</f>
-        <v>36516</v>
+        <v>47616</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4595,7 +4760,7 @@
         <v>181</v>
       </c>
       <c r="B9">
-        <v>48427</v>
+        <v>65527</v>
       </c>
       <c r="C9">
         <v>32952</v>
@@ -4620,7 +4785,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>SUM(B9:B11)</f>
-        <v>54427</v>
+        <v>71527</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C9:C11)</f>
@@ -4671,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4724,17 +4889,17 @@
         <v>109</v>
       </c>
       <c r="B3">
-        <v>48427</v>
+        <v>65527</v>
       </c>
       <c r="C3">
-        <v>10350</v>
+        <v>17068</v>
       </c>
       <c r="D3">
         <v>2251</v>
       </c>
       <c r="E3">
         <f>(B3-(C3+D3))</f>
-        <v>35826</v>
+        <v>46208</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,11 +4923,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
-        <v>96979</v>
+        <v>114079</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
-        <v>26902</v>
+        <v>33620</v>
       </c>
       <c r="D5" s="11">
         <f>SUM(D2:D4)</f>
@@ -4770,7 +4935,7 @@
       </c>
       <c r="E5" s="11">
         <f>SUM(E2:E4)</f>
-        <v>65581</v>
+        <v>75963</v>
       </c>
     </row>
   </sheetData>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Expenditure Sheet" sheetId="2" r:id="rId2"/>
     <sheet name="Money Distribution" sheetId="4" r:id="rId3"/>
-    <sheet name="Profit Distribution" sheetId="5" r:id="rId4"/>
+    <sheet name="Salary and Payment" sheetId="8" r:id="rId4"/>
+    <sheet name="Profit Distribution" sheetId="5" r:id="rId5"/>
+    <sheet name="Research Work" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="257">
   <si>
     <t>Sno</t>
   </si>
@@ -707,6 +709,93 @@
   </si>
   <si>
     <t xml:space="preserve">kpsdagur1994@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid to </t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Account Detail</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Lakshay Sharma</t>
+  </si>
+  <si>
+    <t>Tech Development And HR Support</t>
+  </si>
+  <si>
+    <t>Tez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank – ICICI Bank Limited
+ Branch – NARAINA VIHAR,DELHI, 
+Name – LAKSHAY SHARMA
+A/c No – 033501512411, 
+A/c type  – Saving account
+IFSC Code – ICIC0000335
+</t>
+  </si>
+  <si>
+    <t>Ship Intrusion System</t>
+  </si>
+  <si>
+    <t>Deven Singha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devansingha@gmail.com </t>
+  </si>
+  <si>
+    <t>ELRMD059046</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>Ship Components</t>
+  </si>
+  <si>
+    <t>31/12/2017</t>
+  </si>
+  <si>
+    <t>31/01/2018</t>
+  </si>
+  <si>
+    <t>Salary  to Lakshay 31/01</t>
+  </si>
+  <si>
+    <t>Salary  to Lakshay 31/12</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product to be researched on </t>
+  </si>
+  <si>
+    <t>Headed By</t>
+  </si>
+  <si>
+    <t>Proposed Benefits</t>
+  </si>
+  <si>
+    <t>Paytm Device</t>
+  </si>
+  <si>
+    <t>Nikhil/Saurav</t>
+  </si>
+  <si>
+    <t>Mass production by April</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -882,7 +971,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,6 +999,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,11 +1044,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -963,8 +1058,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Revenue Distribution</a:t>
+              <a:t>Profit</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -982,11 +1082,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1000,7 +1100,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="50"/>
+      <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
@@ -1050,19 +1150,22 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1072,17 +1175,17 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1090,19 +1193,42 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -1116,24 +1242,31 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Investment</a:t>
+                      <a:t>Investment, </a:t>
                     </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{51D23646-7291-435F-977E-8F7E6A3B44C1}" type="PERCENTAGE">
+                    <a:fld id="{59EF8790-6DE0-4C36-8475-3DCE5F4CC3D6}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{442B6BD6-176E-471E-B7E2-970146FC58D5}" type="PERCENTAGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
@@ -1154,10 +1287,18 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Delivery
-</a:t>
+                      <a:t>DC, </a:t>
                     </a:r>
-                    <a:fld id="{1EE0F15B-9560-40CE-966C-A187BD476190}" type="PERCENTAGE">
+                    <a:fld id="{59431A23-9178-4C0B-9628-A7FAEC4C2C98}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BE0EA93F-54E4-4F0B-AE2E-CCEAA08F9273}" type="PERCENTAGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PERCENTAGE]</a:t>
@@ -1166,11 +1307,11 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
@@ -1191,10 +1332,18 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Profit
-</a:t>
+                      <a:t>Salary, </a:t>
                     </a:r>
-                    <a:fld id="{D1409705-E694-4E2B-81C0-CB8474F1290B}" type="PERCENTAGE">
+                    <a:fld id="{FB7E6A20-5B75-49F1-9C10-2FF337C10A1D}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{7EC51A53-4A40-4DCE-B629-BA056F824CE7}" type="PERCENTAGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[PERCENTAGE]</a:t>
@@ -1203,11 +1352,62 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Profits</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{033727B0-F767-4EF5-B364-33590B8A8CF3}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{424736F7-3507-46C7-A1E3-F4F96F49F880}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
@@ -1219,30 +1419,11 @@
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1251,9 +1432,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1263,57 +1447,63 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Profit Distribution'!$C$5:$E$5</c:f>
+              <c:f>'Profit Distribution'!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>33620</c:v>
+                  <c:v>39370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4496</c:v>
+                  <c:v>6356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75963</c:v>
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1326,35 +1516,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1420,74 +1626,58 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1500,110 +1690,73 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1613,37 +1766,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1651,7 +1804,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1667,19 +1820,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1689,22 +1844,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1713,17 +1869,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1732,12 +1888,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1751,36 +1907,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1790,28 +1940,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1820,17 +1959,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1839,16 +1978,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1857,35 +1997,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1893,22 +2025,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1916,14 +2037,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1935,12 +2056,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1949,13 +2070,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1964,9 +2086,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1976,19 +2098,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1997,16 +2120,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2014,8 +2132,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2024,20 +2148,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2342,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="D31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N41" sqref="N24:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,16 +2484,16 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="38.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2404,25 +2528,28 @@
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2440,8 +2567,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2460,8 +2588,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2492,18 +2621,18 @@
       <c r="K4">
         <v>250</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M13" si="0">(E4-(F4+J4))</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="0">(E4-(F4+J4))</f>
         <v>520</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2534,18 +2663,18 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2576,18 +2705,18 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>3090</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2618,18 +2747,18 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2660,18 +2789,18 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2702,18 +2831,18 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>19</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>815</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2744,18 +2873,18 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2786,18 +2915,18 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>19</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2828,18 +2957,18 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>19</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>2261</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2870,18 +2999,18 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>19</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
@@ -2903,12 +3032,13 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <f>SUM(M4:M13)</f>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <f>SUM(N4:N13)</f>
         <v>11383</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="G15" s="6" t="s">
         <v>67</v>
       </c>
@@ -2916,7 +3046,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -2947,21 +3077,21 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>19</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f>(E16-(F16+J16))</f>
         <v>190</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>56</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
@@ -2992,21 +3122,21 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>19</v>
       </c>
-      <c r="M17">
-        <f t="shared" ref="M17:M21" si="1">(E17-(F17+J17))</f>
+      <c r="N17">
+        <f t="shared" ref="N17:N21" si="1">(E17-(F17+J17))</f>
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>57</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3</v>
       </c>
@@ -3037,21 +3167,21 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>19</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="O18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>4</v>
       </c>
@@ -3082,21 +3212,21 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>19</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="O19" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5</v>
       </c>
@@ -3127,21 +3257,21 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>19</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>2840</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="O20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <v>42949</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>6</v>
       </c>
@@ -3172,21 +3302,22 @@
       <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" t="s">
         <v>19</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>1490</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="O21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f>SUM(E16:E21)</f>
         <v>13140</v>
@@ -3199,17 +3330,17 @@
         <f>SUM(J16:J21)</f>
         <v>480</v>
       </c>
-      <c r="M22" s="11">
-        <f>SUM(M16:M21)</f>
+      <c r="N22" s="11">
+        <f>SUM(N16:N21)</f>
         <v>7205</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>7</v>
       </c>
@@ -3240,27 +3371,27 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>79</v>
       </c>
-      <c r="M24">
-        <f t="shared" ref="M24:M38" si="2">(E24-(F24+J24))</f>
+      <c r="N24">
+        <f t="shared" ref="N24:N40" si="2">(E24-(F24+J24+L24))</f>
         <v>2604</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>80</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>81</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>7</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>8</v>
       </c>
@@ -3291,27 +3422,27 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>79</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="2"/>
         <v>2760</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>87</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>88</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>9</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>9</v>
       </c>
@@ -3342,27 +3473,27 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>79</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>91</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>92</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>15</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>10</v>
       </c>
@@ -3393,21 +3524,21 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>59</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>99</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>11</v>
       </c>
@@ -3438,21 +3569,21 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>19</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="2"/>
         <v>2440</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="O28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>12</v>
       </c>
@@ -3483,24 +3614,24 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>79</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f t="shared" si="2"/>
         <v>7194</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="O29" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>154</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>13</v>
       </c>
@@ -3528,21 +3659,21 @@
       <c r="J30">
         <v>251</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>147</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f t="shared" si="2"/>
         <v>2599</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="O30" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="O30" s="8">
+      <c r="P30" s="8">
         <v>42893</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>14</v>
       </c>
@@ -3566,19 +3697,19 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>79</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="O31" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>15</v>
       </c>
@@ -3604,21 +3735,21 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>79</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f t="shared" si="2"/>
         <v>799</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="O32" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="P32" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>16</v>
       </c>
@@ -3642,21 +3773,21 @@
       <c r="J33">
         <v>870</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>19</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="O33" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="P33" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>17</v>
       </c>
@@ -3682,21 +3813,21 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>79</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="O34" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <v>42776</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>18</v>
       </c>
@@ -3724,21 +3855,21 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>79</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>201</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>19</v>
       </c>
@@ -3766,21 +3897,21 @@
       <c r="J36">
         <v>50</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>19</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <f t="shared" si="2"/>
         <v>3250</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>206</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>20</v>
       </c>
@@ -3808,21 +3939,21 @@
       <c r="J37">
         <v>50</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>19</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <f t="shared" si="2"/>
         <v>3850</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>211</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21</v>
       </c>
@@ -3850,21 +3981,21 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>221</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <f t="shared" si="2"/>
         <v>3400</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>217</v>
       </c>
-      <c r="O38" s="8">
+      <c r="P38" s="8">
         <v>42778</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>22</v>
       </c>
@@ -3892,21 +4023,21 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>79</v>
       </c>
-      <c r="M39">
-        <f t="shared" ref="M39:M40" si="3">(E39-(F39+J39))</f>
+      <c r="N39">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>225</v>
       </c>
-      <c r="O39" s="8">
+      <c r="P39" s="8">
         <v>42778</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>23</v>
       </c>
@@ -3934,56 +4065,108 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>79</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="3"/>
+      <c r="N40">
+        <f t="shared" si="2"/>
         <v>3982</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>226</v>
       </c>
-      <c r="O40" s="8">
+      <c r="P40" s="8">
         <v>42778</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="11">
-        <f>SUM(E24:E40)</f>
-        <v>65527</v>
-      </c>
-      <c r="F41" s="11">
-        <f>SUM(F24:F40)</f>
-        <v>17068</v>
-      </c>
-      <c r="J41" s="11">
-        <f>SUM(J24:J40)</f>
-        <v>2251</v>
-      </c>
-      <c r="M41" s="11">
-        <f>SUM(M24:M40)</f>
-        <v>46208</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="4">
+        <v>13500</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5750</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41">
+        <v>8860050695</v>
+      </c>
+      <c r="I41" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1860</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>4900</v>
+      </c>
+      <c r="M41" t="s">
+        <v>221</v>
+      </c>
+      <c r="N41">
+        <f>(E41-(F41+J41+L41))</f>
+        <v>990</v>
+      </c>
+      <c r="O41" t="s">
+        <v>242</v>
+      </c>
+      <c r="P41" s="8">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="11">
+        <f>SUM(E24:E41)</f>
+        <v>79027</v>
+      </c>
+      <c r="F42" s="11">
+        <f>SUM(F24:F41)</f>
+        <v>22818</v>
+      </c>
+      <c r="J42" s="11">
+        <f>SUM(J24:J41)</f>
+        <v>4111</v>
+      </c>
+      <c r="L42" s="11">
+        <f>SUM(L4:L41)</f>
+        <v>4900</v>
+      </c>
+      <c r="N42" s="11">
+        <f>SUM(N24:N41)</f>
+        <v>47198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="J44">
         <f>SUM(J46:J53)</f>
         <v>1115</v>
       </c>
-      <c r="M44" s="11">
-        <f>SUM(M46:M53)</f>
+      <c r="N44" s="11">
+        <f>SUM(N46:N53)</f>
         <v>11167</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>19</v>
       </c>
@@ -4011,21 +4194,21 @@
       <c r="J46">
         <v>35</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>19</v>
       </c>
-      <c r="M46">
-        <f t="shared" ref="M46:M53" si="4">(E46-(F46+J46))</f>
+      <c r="N46">
+        <f t="shared" ref="N46:N53" si="3">(E46-(F46+J46))</f>
         <v>1964</v>
       </c>
-      <c r="N46" s="19" t="s">
+      <c r="O46" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>20</v>
       </c>
@@ -4053,21 +4236,21 @@
       <c r="J47">
         <v>10</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>19</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="4"/>
+      <c r="N47">
+        <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="O47" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="O47" s="8">
+      <c r="P47" s="8">
         <v>42771</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>21</v>
       </c>
@@ -4095,21 +4278,21 @@
       <c r="J48">
         <v>100</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>19</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="4"/>
+      <c r="N48">
+        <f t="shared" si="3"/>
         <v>1730</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="O48" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>22</v>
       </c>
@@ -4137,21 +4320,21 @@
       <c r="J49">
         <v>70</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>19</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="4"/>
+      <c r="N49">
+        <f t="shared" si="3"/>
         <v>1831</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="O49" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>23</v>
       </c>
@@ -4179,21 +4362,21 @@
       <c r="J50">
         <v>50</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>19</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="4"/>
+      <c r="N50">
+        <f t="shared" si="3"/>
         <v>970</v>
       </c>
-      <c r="N50" s="18" t="s">
+      <c r="O50" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>24</v>
       </c>
@@ -4221,21 +4404,21 @@
       <c r="J51">
         <v>600</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>19</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="4"/>
+      <c r="N51">
+        <f t="shared" si="3"/>
         <v>-1400</v>
       </c>
-      <c r="N51" s="18" t="s">
+      <c r="O51" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="O51" s="8">
+      <c r="P51" s="8">
         <v>42921</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>25</v>
       </c>
@@ -4263,21 +4446,21 @@
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>19</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="4"/>
+      <c r="N52">
+        <f t="shared" si="3"/>
         <v>1532</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="O52" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="O52" s="8">
+      <c r="P52" s="8">
         <v>42772</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>26</v>
       </c>
@@ -4305,28 +4488,29 @@
       <c r="J53">
         <v>250</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>19</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="4"/>
+      <c r="N53">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="N53" s="21" t="s">
+      <c r="O53" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="O53" s="8">
+      <c r="P53" s="8">
         <v>42891</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E55" s="11">
         <f>SUM(E46:E53)</f>
         <v>19812</v>
@@ -4339,8 +4523,8 @@
         <f>SUM(J46:J53)</f>
         <v>1115</v>
       </c>
-      <c r="M55" s="11">
-        <f>SUM(M46:M53)</f>
+      <c r="N55" s="11">
+        <f>SUM(N46:N53)</f>
         <v>11167</v>
       </c>
     </row>
@@ -4374,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B29" activeCellId="1" sqref="B29 B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,9 +4755,49 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
-        <f>SUM(B3:B23)</f>
-        <v>27648</v>
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <f>SUM(B3:B28)</f>
+        <v>42198</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4673,7 +4897,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="B45" s="11">
         <f>SUM(B34:B44)</f>
         <v>27202</v>
       </c>
@@ -4691,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4719,7 +4943,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>65527</v>
+        <v>85027</v>
       </c>
       <c r="C2">
         <v>36939</v>
@@ -4730,7 +4954,7 @@
         <v>182</v>
       </c>
       <c r="B3">
-        <v>27648</v>
+        <v>42198</v>
       </c>
       <c r="C3">
         <v>27202</v>
@@ -4739,7 +4963,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>(B2-B3)</f>
-        <v>37879</v>
+        <v>42829</v>
       </c>
       <c r="C4" s="11">
         <f>(C2-C3)</f>
@@ -4747,7 +4971,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(B4:F4)</f>
-        <v>47616</v>
+        <v>52566</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4760,7 +4984,7 @@
         <v>181</v>
       </c>
       <c r="B9">
-        <v>65527</v>
+        <v>79027</v>
       </c>
       <c r="C9">
         <v>32952</v>
@@ -4785,7 +5009,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>SUM(B9:B11)</f>
-        <v>71527</v>
+        <v>85027</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C9:C11)</f>
@@ -4802,7 +5026,7 @@
         <v>187</v>
       </c>
       <c r="B15">
-        <v>27648</v>
+        <v>40198</v>
       </c>
       <c r="C15">
         <v>23456</v>
@@ -4819,7 +5043,7 @@
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>SUM(B15:B16)</f>
-        <v>27648</v>
+        <v>40198</v>
       </c>
       <c r="C17" s="11">
         <f>SUM(C15:C16)</f>
@@ -4834,10 +5058,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3">
+        <v>1900</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5">
+        <v>4900</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,11 +5149,11 @@
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -4863,10 +5167,16 @@
         <v>193</v>
       </c>
       <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>191</v>
       </c>
@@ -4880,29 +5190,38 @@
         <v>650</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <f>(B2-(C2+D2))</f>
         <v>11383</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B3">
-        <v>65527</v>
+        <v>79027</v>
       </c>
       <c r="C3">
-        <v>17068</v>
+        <v>22818</v>
       </c>
       <c r="D3">
-        <v>2251</v>
+        <v>4111</v>
       </c>
       <c r="E3">
-        <f>(B3-(C3+D3))</f>
-        <v>46208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4900</v>
+      </c>
+      <c r="F3">
+        <f>(B3-(C3+D3+E3))</f>
+        <v>47198</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
@@ -4916,30 +5235,86 @@
         <v>1595</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <f>(B4-(C4+D4))</f>
         <v>18372</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
-        <v>114079</v>
+        <v>127579</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
-        <v>33620</v>
+        <v>39370</v>
       </c>
       <c r="D5" s="11">
         <f>SUM(D2:D4)</f>
-        <v>4496</v>
+        <v>6356</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E2:E4)</f>
-        <v>75963</v>
+        <v>4900</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM(F2:F4)</f>
+        <v>76953</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Expenditure Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Money Distribution" sheetId="4" r:id="rId3"/>
-    <sheet name="Salary and Payment" sheetId="8" r:id="rId4"/>
-    <sheet name="Profit Distribution" sheetId="5" r:id="rId5"/>
-    <sheet name="Research Work" sheetId="10" r:id="rId6"/>
+    <sheet name="Analysis" sheetId="11" r:id="rId1"/>
+    <sheet name="Customer Sheet" sheetId="1" r:id="rId2"/>
+    <sheet name="Expenditure Sheet" sheetId="2" r:id="rId3"/>
+    <sheet name="Money Distribution" sheetId="4" r:id="rId4"/>
+    <sheet name="Salary and Payment" sheetId="8" r:id="rId5"/>
+    <sheet name="Profit Distribution" sheetId="5" r:id="rId6"/>
+    <sheet name="Research Work" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="258">
   <si>
     <t>Sno</t>
   </si>
@@ -797,12 +798,15 @@
   <si>
     <t>Research</t>
   </si>
+  <si>
+    <t xml:space="preserve">Project </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +911,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -964,14 +976,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1005,8 +1018,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2146,6 +2164,195 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4391025" cy="1814599"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="295274"/>
+          <a:ext cx="4391025" cy="1814599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Projects - 42</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Total Profit - 76953</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Average profit per project - 1832.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highest ROI project  for Hardware Project - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ELRMS690041 (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3982</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Highest ROI project  for Non- Hardware Project - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ELSWD059030</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7194)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2466,10 +2673,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>76953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N41" sqref="N24:N41"/>
+    <sheetView topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,7 +4744,7 @@
     </row>
     <row r="46" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>123</v>
@@ -4210,7 +4786,7 @@
     </row>
     <row r="47" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
         <v>122</v>
@@ -4252,7 +4828,7 @@
     </row>
     <row r="48" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>125</v>
@@ -4294,7 +4870,7 @@
     </row>
     <row r="49" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>129</v>
@@ -4336,7 +4912,7 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>133</v>
@@ -4378,7 +4954,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>136</v>
@@ -4420,7 +4996,7 @@
     </row>
     <row r="52" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>141</v>
@@ -4462,7 +5038,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
         <v>155</v>
@@ -4554,7 +5130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -4911,11 +5487,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5056,7 +5632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5136,11 +5712,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -5270,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="261">
   <si>
     <t>Sno</t>
   </si>
@@ -800,6 +800,15 @@
   </si>
   <si>
     <t xml:space="preserve">Project </t>
+  </si>
+  <si>
+    <t>bluedart vishnu</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>Vishnu Components</t>
   </si>
 </sst>
 </file>
@@ -1488,9 +1497,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -1509,7 +1516,7 @@
                   <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76953</c:v>
+                  <c:v>72953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="4">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="F41" s="4">
         <v>5750</v>
@@ -4694,7 +4701,7 @@
       </c>
       <c r="N41">
         <f>(E41-(F41+J41+L41))</f>
-        <v>990</v>
+        <v>-2510</v>
       </c>
       <c r="O41" t="s">
         <v>242</v>
@@ -4706,7 +4713,7 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E42" s="11">
         <f>SUM(E24:E41)</f>
-        <v>79027</v>
+        <v>75527</v>
       </c>
       <c r="F42" s="11">
         <f>SUM(F24:F41)</f>
@@ -4722,7 +4729,7 @@
       </c>
       <c r="N42" s="11">
         <f>SUM(N24:N41)</f>
-        <v>47198</v>
+        <v>43698</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -5132,10 +5139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B29" activeCellId="1" sqref="B29 B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,115 +5378,142 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
-        <f>SUM(B3:B28)</f>
-        <v>42198</v>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <f>SUM(B3:B32)</f>
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>42866</v>
-      </c>
-      <c r="B39">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
-        <v>42845</v>
-      </c>
-      <c r="B40">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
-        <v>42853</v>
-      </c>
-      <c r="B41">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <v>43009</v>
-      </c>
-      <c r="B42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <v>43022</v>
-      </c>
-      <c r="B43">
-        <v>1450</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>42866</v>
+      </c>
+      <c r="B49">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>42845</v>
+      </c>
+      <c r="B50">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>42853</v>
+      </c>
+      <c r="B51">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>43009</v>
+      </c>
+      <c r="B52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>43022</v>
+      </c>
+      <c r="B53">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>185</v>
       </c>
-      <c r="B44">
+      <c r="B54">
         <v>3746</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
-        <f>SUM(B34:B44)</f>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="11">
+        <f>SUM(B44:B54)</f>
         <v>27202</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A34">
+  <sortState ref="A44">
     <sortCondition descending="1" ref="A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5492,7 +5526,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,7 +5564,7 @@
         <v>182</v>
       </c>
       <c r="B3">
-        <v>42198</v>
+        <v>45781</v>
       </c>
       <c r="C3">
         <v>27202</v>
@@ -5539,7 +5573,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>(B2-B3)</f>
-        <v>42829</v>
+        <v>39246</v>
       </c>
       <c r="C4" s="11">
         <f>(C2-C3)</f>
@@ -5547,7 +5581,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(B4:F4)</f>
-        <v>52566</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5560,7 +5594,7 @@
         <v>181</v>
       </c>
       <c r="B9">
-        <v>79027</v>
+        <v>75027</v>
       </c>
       <c r="C9">
         <v>32952</v>
@@ -5585,7 +5619,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>SUM(B9:B11)</f>
-        <v>85027</v>
+        <v>81027</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C9:C11)</f>
@@ -5602,7 +5636,7 @@
         <v>187</v>
       </c>
       <c r="B15">
-        <v>40198</v>
+        <v>45781</v>
       </c>
       <c r="C15">
         <v>23456</v>
@@ -5619,7 +5653,7 @@
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>SUM(B15:B16)</f>
-        <v>40198</v>
+        <v>45781</v>
       </c>
       <c r="C17" s="11">
         <f>SUM(C15:C16)</f>
@@ -5637,7 +5671,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5716,8 +5750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,7 +5812,7 @@
         <v>109</v>
       </c>
       <c r="B3">
-        <v>79027</v>
+        <v>75027</v>
       </c>
       <c r="C3">
         <v>22818</v>
@@ -5791,7 +5825,7 @@
       </c>
       <c r="F3">
         <f>(B3-(C3+D3+E3))</f>
-        <v>47198</v>
+        <v>43198</v>
       </c>
       <c r="G3">
         <v>2000</v>
@@ -5821,7 +5855,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
-        <v>127579</v>
+        <v>123579</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
@@ -5837,7 +5871,7 @@
       </c>
       <c r="F5" s="11">
         <f>SUM(F2:F4)</f>
-        <v>76953</v>
+        <v>72953</v>
       </c>
     </row>
   </sheetData>

--- a/Customers+finance_revised.xlsx
+++ b/Customers+finance_revised.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="264">
   <si>
     <t>Sno</t>
   </si>
@@ -809,6 +809,15 @@
   </si>
   <si>
     <t>Vishnu Components</t>
+  </si>
+  <si>
+    <t>Secret Code using GSM</t>
+  </si>
+  <si>
+    <t>Aatir Walik</t>
+  </si>
+  <si>
+    <t>ELRMD059047</t>
   </si>
 </sst>
 </file>
@@ -1507,16 +1516,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39370</c:v>
+                  <c:v>42370</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6356</c:v>
+                  <c:v>6866</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72953</c:v>
+                  <c:v>82130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="D22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,39 +4719,67 @@
         <v>42737</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="11">
-        <f>SUM(E24:E41)</f>
-        <v>75527</v>
-      </c>
-      <c r="F42" s="11">
-        <f>SUM(F24:F41)</f>
-        <v>22818</v>
+    <row r="42" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="4">
+        <v>12187</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="J42" s="11">
-        <f>SUM(J24:J41)</f>
-        <v>4111</v>
+        <v>500</v>
       </c>
       <c r="L42" s="11">
-        <f>SUM(L4:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <f>(E42-(F42+J42+L42))</f>
+        <v>8687</v>
+      </c>
+      <c r="O42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f>SUM(E24:E42)</f>
+        <v>87714</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F24:F42)</f>
+        <v>25818</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J24:J42)</f>
+        <v>4611</v>
+      </c>
+      <c r="L43">
         <v>4900</v>
       </c>
-      <c r="N42" s="11">
-        <f>SUM(N24:N41)</f>
-        <v>43698</v>
+      <c r="N43">
+        <f>SUM(N24:N42)</f>
+        <v>52385</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="J44">
-        <f>SUM(J46:J53)</f>
-        <v>1115</v>
-      </c>
-      <c r="N44" s="11">
-        <f>SUM(N46:N53)</f>
-        <v>11167</v>
-      </c>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
@@ -5141,7 +5178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -5525,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5553,7 +5590,7 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>85027</v>
+        <v>87714</v>
       </c>
       <c r="C2">
         <v>36939</v>
@@ -5573,7 +5610,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>(B2-B3)</f>
-        <v>39246</v>
+        <v>41933</v>
       </c>
       <c r="C4" s="11">
         <f>(C2-C3)</f>
@@ -5581,7 +5618,7 @@
       </c>
       <c r="G4" s="11">
         <f>SUM(B4:F4)</f>
-        <v>48983</v>
+        <v>51670</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5594,7 +5631,7 @@
         <v>181</v>
       </c>
       <c r="B9">
-        <v>75027</v>
+        <v>87714</v>
       </c>
       <c r="C9">
         <v>32952</v>
@@ -5619,7 +5656,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>SUM(B9:B11)</f>
-        <v>81027</v>
+        <v>93714</v>
       </c>
       <c r="C12" s="11">
         <f>SUM(C9:C11)</f>
@@ -5751,7 +5788,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,20 +5849,20 @@
         <v>109</v>
       </c>
       <c r="B3">
-        <v>75027</v>
+        <v>87714</v>
       </c>
       <c r="C3">
-        <v>22818</v>
+        <v>25818</v>
       </c>
       <c r="D3">
-        <v>4111</v>
+        <v>4621</v>
       </c>
       <c r="E3">
         <v>4900</v>
       </c>
       <c r="F3">
         <f>(B3-(C3+D3+E3))</f>
-        <v>43198</v>
+        <v>52375</v>
       </c>
       <c r="G3">
         <v>2000</v>
@@ -5855,15 +5892,15 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>SUM(B2:B4)</f>
-        <v>123579</v>
+        <v>136266</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C2:C4)</f>
-        <v>39370</v>
+        <v>42370</v>
       </c>
       <c r="D5" s="11">
         <f>SUM(D2:D4)</f>
-        <v>6356</v>
+        <v>6866</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E2:E4)</f>
@@ -5871,7 +5908,7 @@
       </c>
       <c r="F5" s="11">
         <f>SUM(F2:F4)</f>
-        <v>72953</v>
+        <v>82130</v>
       </c>
     </row>
   </sheetData>
